--- a/Others/Analiza_wynikow.xlsx
+++ b/Others/Analiza_wynikow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wojte\Documents\GitHub\Kahneman_Fial\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF617A86-7FCD-477B-B062-190DEEC089A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A556D22C-890A-40E4-9C47-1F4EB5570820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{EFECA579-AF2B-4EED-B446-CCE1B9F9443D}"/>
+    <workbookView xWindow="-38520" yWindow="-6840" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{EFECA579-AF2B-4EED-B446-CCE1B9F9443D}"/>
   </bookViews>
   <sheets>
     <sheet name="5.3" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="5.5" sheetId="3" r:id="rId3"/>
     <sheet name="5.6" sheetId="5" r:id="rId4"/>
     <sheet name="5.7" sheetId="4" r:id="rId5"/>
+    <sheet name="6.8" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="234">
   <si>
     <t xml:space="preserve">male </t>
   </si>
@@ -87,24 +88,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>liczba obserwacji, w których wiek  to „A” i wynik = 0,</t>
-  </si>
-  <si>
-    <t>liczba obserwacji, w których wiek  to „B” i wynik = 0,</t>
-  </si>
-  <si>
-    <t>liczba obserwacji, w których wiek  to "C” i wynik = 0,</t>
-  </si>
-  <si>
-    <t>liczba obserwacji, w których wiek  to „A” i wynik = 1</t>
-  </si>
-  <si>
-    <t>liczba obserwacji, w których wiek  to „B” i wynik = 1</t>
-  </si>
-  <si>
-    <t>liczba obserwacji, w których wiek  to "C” i wynik = 1</t>
-  </si>
-  <si>
     <t>Wykształcenie, a zmanipulowanie użytkowników</t>
   </si>
   <si>
@@ -156,12 +139,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>liczba obserwacji, w których wiek  to "D” i wynik = 0,</t>
-  </si>
-  <si>
-    <t>liczba obserwacji, w których wiek  to "D” i wynik = 1</t>
-  </si>
-  <si>
     <t>Grupa wiekowa</t>
   </si>
   <si>
@@ -177,9 +154,6 @@
     <t>A (18–30)</t>
   </si>
   <si>
-    <t>n_A</t>
-  </si>
-  <si>
     <t>średnia_A</t>
   </si>
   <si>
@@ -189,9 +163,6 @@
     <t>B (30–50)</t>
   </si>
   <si>
-    <t>n_B</t>
-  </si>
-  <si>
     <t>średnia_B</t>
   </si>
   <si>
@@ -201,9 +172,6 @@
     <t>C (50–100)</t>
   </si>
   <si>
-    <t>n_C</t>
-  </si>
-  <si>
     <t>średnia_C</t>
   </si>
   <si>
@@ -282,65 +250,5011 @@
     <t>IX</t>
   </si>
   <si>
-    <t>liczba obserwacji, w których wiek  to „I” i wynik = 0,</t>
-  </si>
-  <si>
-    <t>liczba obserwacji, w których wiek  to „II” i wynik = 0,</t>
-  </si>
-  <si>
-    <t>liczba obserwacji, w których wiek  to „III” i wynik = 0,</t>
-  </si>
-  <si>
-    <t>liczba obserwacji, w których wiek  to „IV” i wynik = 0,</t>
-  </si>
-  <si>
-    <t>liczba obserwacji, w których wiek  to „V” i wynik = 0,</t>
-  </si>
-  <si>
-    <t>liczba obserwacji, w których wiek  to „VI” i wynik = 0,</t>
-  </si>
-  <si>
-    <t>liczba obserwacji, w których wiek  to „VII” i wynik = 0,</t>
-  </si>
-  <si>
-    <t>liczba obserwacji, w których wiek  to „VIII” i wynik = 0,</t>
-  </si>
-  <si>
-    <t>liczba obserwacji, w których wiek  to „IX” i wynik = 0,</t>
-  </si>
-  <si>
-    <t>liczba obserwacji, w których wiek  to „I” i wynik = 1</t>
-  </si>
-  <si>
-    <t>liczba obserwacji, w których wiek  to „II” i wynik = 1</t>
-  </si>
-  <si>
-    <t>liczba obserwacji, w których wiek  to „III” i wynik =1</t>
-  </si>
-  <si>
-    <t>liczba obserwacji, w których wiek  to „IV” i wynik = 1</t>
-  </si>
-  <si>
-    <t>liczba obserwacji, w których wiek  to „V” i wynik =1</t>
-  </si>
-  <si>
-    <t>liczba obserwacji, w których wiek  to „VI” i wynik = 1</t>
-  </si>
-  <si>
-    <t>liczba obserwacji, w których wiek  to „VII” i wynik =1</t>
-  </si>
-  <si>
-    <t>liczba obserwacji, w których wiek  to „VIII” i wynik = 1</t>
-  </si>
-  <si>
-    <t>liczba obserwacji, w których wiek  to „IX” i wynik = 1</t>
+    <t>Styl decyzyjny/ Wynik</t>
+  </si>
+  <si>
+    <t>intuicyjny</t>
+  </si>
+  <si>
+    <t>racjonalny</t>
+  </si>
+  <si>
+    <t>zależny</t>
+  </si>
+  <si>
+    <t>spontaniczny</t>
+  </si>
+  <si>
+    <t>unikjający</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których użytkownik ma najwiecej punktow w racjonalnym,  to „I” i wynik = 1,</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których użytkownik ma najwiecej punktow w spontanicznym,  to „I” i wynik = 1,</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna' AND fh.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna' AND f.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna' AND k.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyna' AND m.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna' AND p.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna' AND q.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna' AND sp.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna' AND tp.wynik = 0
+  ) AS liczba_blednych_obserwacji_dla_mezczyzn;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND fh.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND f.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND k.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND m.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND p.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND q.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND sp.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND tp.wynik = 0
+  ) AS liczba_blednych_obserwacji_dla_kobiet;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna' AND fh.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna' AND f.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna' AND k.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyna' AND m.wynik =1
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna' AND p.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna' AND q.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna' AND sp.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna' AND tp.wynik = 1
+  ) AS liczba_pop_obserwacji_dla_mezczyzn;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND fh.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND f.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND k.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND m.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND p.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND q.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND sp.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND tp.wynik = 1
+  ) AS liczba_pop_obserwacji_dla_kobiet;</t>
+  </si>
+  <si>
+    <t>uzytkownicy_young</t>
+  </si>
+  <si>
+    <t>uzytkownicy_mid</t>
+  </si>
+  <si>
+    <t>uzytkownicy_old</t>
+  </si>
+  <si>
+    <t>liczba wszystkich obserwacj z zadan , którzy należą do widoku uzytkownicy_old (taka sama struktura jak tabela uzytkownicy), a   wynik = 0,</t>
+  </si>
+  <si>
+    <t>liczba wszystkich obserwacj z zadan , którzy należą do widoku uzytkownicy_young (taka sama struktura jak tabela uzytkownicy), a   wynik = 1,</t>
+  </si>
+  <si>
+    <t>liczba wszystkich obserwacj z zadan , którzy należą do widoku uzytkownicy_mid (taka sama struktura jak tabela uzytkownicy), a   wynik = 1</t>
+  </si>
+  <si>
+    <t>liczba wszystkich obserwacj z zadan , którzy należą do widoku uzytkownicy_old (taka sama struktura jak tabela uzytkownicy), a   wynik = 1</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0
+  ) AS liczba_blednych_obserwacji_uzytkownicy_young;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba wszystkich obserwacji z zadan, uzytkownikow którzy należą do widoku uzytkownicy_young (taka sama struktura jak tabela uzytkownicy), a   wynik = 0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba wszystkich obserwacji z zadan, uzytkownikow którzy należą do widoku uzytkownicy_mid (taka sama struktura jak tabela uzytkownicy), a   wynik = 0  </t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0
+  ) AS liczba_blednych_obserwacji_uzytkownicy_mid;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0
+  ) AS liczba_blednych_obserwacji_uzytkownicy_old;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 1
+  ) AS liczba_pop_obserwacji_uzytkownicy_young;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 1
+  ) AS liczba_pop_obserwacji_uzytkownicy_mid;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 1
+  ) AS liczba_pop_obserwacji_uzytkownicy_mid;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba obserwacji, w których użytkownik, ze wszystkich stylow, ma najwiecej punktow w kategorii stylu intuicyjnym i wynik ze wszystkich zadań = 0, </t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN GDMS g ON fh.id_sesji = g.id_sesji
+    WHERE fh.wynik = 0
+      AND g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN GDMS g ON f.id_sesji = g.id_sesji
+    WHERE f.wynik = 0
+      AND g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN GDMS g ON k.id_sesji = g.id_sesji
+    WHERE k.wynik = 0
+      AND g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN GDMS g ON m.id_sesji = g.id_sesji
+    WHERE m.wynik = 0
+      AND g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN GDMS g ON p.id_sesji = g.id_sesji
+    WHERE p.wynik = 0
+      AND g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN GDMS g ON q.id_sesji = g.id_sesji
+    WHERE q.wynik = 0
+      AND g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN GDMS g ON sp.id_sesji = g.id_sesji
+    WHERE sp.wynik = 0
+      AND g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN GDMS g ON tp.id_sesji = g.id_sesji
+    WHERE tp.wynik = 0
+      AND g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) AS liczba_blednych_obserwacji_intuicyjnych;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN GDMS g ON fh.id_sesji = g.id_sesji
+    WHERE fh.wynik = 1
+      AND g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN GDMS g ON f.id_sesji = g.id_sesji
+    WHERE f.wynik = 1
+      AND g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN GDMS g ON k.id_sesji = g.id_sesji
+    WHERE k.wynik = 1
+      AND g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN GDMS g ON m.id_sesji = g.id_sesji
+    WHERE m.wynik = 1
+      AND g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN GDMS g ON p.id_sesji = g.id_sesji
+    WHERE p.wynik = 1
+      AND g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN GDMS g ON q.id_sesji = g.id_sesji
+    WHERE q.wynik = 1
+      AND g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN GDMS g ON sp.id_sesji = g.id_sesji
+    WHERE sp.wynik = 1
+      AND g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN GDMS g ON tp.id_sesji = g.id_sesji
+    WHERE tp.wynik = 1
+      AND g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) AS liczba_blednych_obserwacji_intuicyjnych;</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których użytkownik, ze wszystkich stylow, ma najwiecej punktow w kategorii stylu intuicyjnym i wynik ze wszystkich zadań = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba obserwacji, w których użytkownik, ze wszystkich stylow, ma najwiecej punktow w kategorii stylu racjonalnym i wynik ze wszystkich zadań = 0, </t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN GDMS g ON fh.id_sesji = g.id_sesji
+    WHERE fh.wynik = 0
+      AND g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN GDMS g ON f.id_sesji = g.id_sesji
+    WHERE f.wynik = 0
+      AND g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN GDMS g ON k.id_sesji = g.id_sesji
+    WHERE k.wynik = 0
+      AND g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN GDMS g ON m.id_sesji = g.id_sesji
+    WHERE m.wynik = 0
+      AND g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN GDMS g ON p.id_sesji = g.id_sesji
+    WHERE p.wynik = 0
+      AND g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN GDMS g ON q.id_sesji = g.id_sesji
+    WHERE q.wynik = 0
+      AND g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN GDMS g ON sp.id_sesji = g.id_sesji
+    WHERE sp.wynik = 0
+      AND g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN GDMS g ON tp.id_sesji = g.id_sesji
+    WHERE tp.wynik = 0
+      AND g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) AS liczba_blednych_obserwacji_racjonalnych;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN GDMS g ON fh.id_sesji = g.id_sesji
+    WHERE fh.wynik = 1
+      AND g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN GDMS g ON f.id_sesji = g.id_sesji
+    WHERE f.wynik = 1
+      AND g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN GDMS g ON k.id_sesji = g.id_sesji
+    WHERE k.wynik = 1
+      AND g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN GDMS g ON m.id_sesji = g.id_sesji
+    WHERE m.wynik = 1
+      AND g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN GDMS g ON p.id_sesji = g.id_sesji
+    WHERE p.wynik = 1
+      AND g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN GDMS g ON q.id_sesji = g.id_sesji
+    WHERE q.wynik = 1
+      AND g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN GDMS g ON sp.id_sesji = g.id_sesji
+    WHERE sp.wynik = 1
+      AND g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN GDMS g ON tp.id_sesji = g.id_sesji
+    WHERE tp.wynik = 1
+      AND g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) AS liczba_blednych_obserwacji_racjonalnych;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba obserwacji, w których użytkownik, ze wszystkich stylow, ma najwiecej punktow w kategorii stylu zależnym i wynik ze wszystkich zadań = 0, </t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których użytkownik, ze wszystkich stylow, ma najwiecej punktow w kategorii stylu zależnym i wynik ze wszystkich zadań = 1</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN GDMS g ON fh.id_sesji = g.id_sesji
+    WHERE fh.wynik = 0
+      AND g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN GDMS g ON f.id_sesji = g.id_sesji
+    WHERE f.wynik = 0
+      AND g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN GDMS g ON k.id_sesji = g.id_sesji
+    WHERE k.wynik = 0
+      AND g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN GDMS g ON m.id_sesji = g.id_sesji
+    WHERE m.wynik = 0
+      AND g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN GDMS g ON p.id_sesji = g.id_sesji
+    WHERE p.wynik = 0
+      AND g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN GDMS g ON q.id_sesji = g.id_sesji
+    WHERE q.wynik = 0
+      AND g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN GDMS g ON sp.id_sesji = g.id_sesji
+    WHERE sp.wynik = 0
+      AND g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN GDMS g ON tp.id_sesji = g.id_sesji
+    WHERE tp.wynik = 0
+      AND g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) AS liczba_blednych_obserwacji_zaleznych;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN GDMS g ON fh.id_sesji = g.id_sesji
+    WHERE fh.wynik = 1
+      AND g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN GDMS g ON f.id_sesji = g.id_sesji
+    WHERE f.wynik = 1
+      AND g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN GDMS g ON k.id_sesji = g.id_sesji
+    WHERE k.wynik = 1
+      AND g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN GDMS g ON m.id_sesji = g.id_sesji
+    WHERE m.wynik = 1
+      AND g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN GDMS g ON p.id_sesji = g.id_sesji
+    WHERE p.wynik = 1
+      AND g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN GDMS g ON q.id_sesji = g.id_sesji
+    WHERE q.wynik = 1
+      AND g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN GDMS g ON sp.id_sesji = g.id_sesji
+    WHERE sp.wynik = 1
+      AND g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN GDMS g ON tp.id_sesji = g.id_sesji
+    WHERE tp.wynik = 1
+      AND g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) AS liczba_blednych_obserwacji_zaleznych;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba obserwacji, w których użytkownik, ze wszystkich stylow, ma najwiecej punktow w kategorii stylu spotanicznym  i wynik ze wszystkich zadań = 0, </t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN GDMS g ON fh.id_sesji = g.id_sesji
+    WHERE fh.wynik = 0
+      AND g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN GDMS g ON f.id_sesji = g.id_sesji
+    WHERE f.wynik = 0
+      AND g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN GDMS g ON k.id_sesji = g.id_sesji
+    WHERE k.wynik = 0
+      AND g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN GDMS g ON m.id_sesji = g.id_sesji
+    WHERE m.wynik = 0
+      AND g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN GDMS g ON p.id_sesji = g.id_sesji
+    WHERE p.wynik = 0
+      AND g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN GDMS g ON q.id_sesji = g.id_sesji
+    WHERE q.wynik = 0
+      AND g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN GDMS g ON sp.id_sesji = g.id_sesji
+    WHERE sp.wynik = 0
+      AND g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN GDMS g ON tp.id_sesji = g.id_sesji
+    WHERE tp.wynik = 0
+      AND g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) AS liczba_blednych_obserwacji_spontanicznych;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN GDMS g ON fh.id_sesji = g.id_sesji
+    WHERE fh.wynik = 1
+      AND g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN GDMS g ON f.id_sesji = g.id_sesji
+    WHERE f.wynik = 1
+      AND g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN GDMS g ON k.id_sesji = g.id_sesji
+    WHERE k.wynik = 1
+      AND g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN GDMS g ON m.id_sesji = g.id_sesji
+    WHERE m.wynik = 1
+      AND g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN GDMS g ON p.id_sesji = g.id_sesji
+    WHERE p.wynik = 1
+      AND g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN GDMS g ON q.id_sesji = g.id_sesji
+    WHERE q.wynik = 1
+      AND g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN GDMS g ON sp.id_sesji = g.id_sesji
+    WHERE sp.wynik = 1
+      AND g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN GDMS g ON tp.id_sesji = g.id_sesji
+    WHERE tp.wynik = 1
+      AND g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) AS liczba_blednych_obserwacji_spontanicznych;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba obserwacji, w których użytkownik, ze wszystkich stylow, ma najwiecej punktow w kategorii stylu unikającym  i wynik ze wszystkich zadań = 0, </t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których użytkownik, ze wszystkich stylow, ma najwiecej punktow w kategorii stylu unikającym  i wynik ze wszystkich zadań = 1</t>
+  </si>
+  <si>
+    <t>Średnie</t>
+  </si>
+  <si>
+    <t>W trakcie studiów</t>
+  </si>
+  <si>
+    <t>Z wykształceniem wyższym</t>
+  </si>
+  <si>
+    <t>Inne</t>
+  </si>
+  <si>
+    <t>Liczba sesji w uzytkownicy_old</t>
+  </si>
+  <si>
+    <t>Liczba sesji w uzytkownicy_mid</t>
+  </si>
+  <si>
+    <t>Liczba sesji w uzytkownicy_young</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_sesji
+FROM sesja s
+JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_sesji
+FROM sesja s
+JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_sesji
+FROM sesja s
+JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>select count(*) from sesja</t>
+  </si>
+  <si>
+    <t>SELECT AVG(sm.ocena) AS srednia_ocena
+FROM session_mark sm
+JOIN sesja s ON sm.id_sesji = s.id_sesji
+JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika</t>
+  </si>
+  <si>
+    <t>SELECT AVG(sm.ocena) AS srednia_ocena
+FROM session_mark sm
+JOIN sesja s ON sm.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika</t>
+  </si>
+  <si>
+    <t>SELECT AVG(sm.ocena) AS srednia_ocena
+FROM session_mark sm
+JOIN sesja s ON sm.id_sesji = s.id_sesji
+JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika</t>
+  </si>
+  <si>
+    <t>SELECT AVG(sm.ocena) AS srednia_ocena
+FROM session_mark sm</t>
+  </si>
+  <si>
+    <t>SELECT sm.ocena, COUNT(*) AS liczba
+FROM session_mark sm
+JOIN sesja s ON sm.id_sesji = s.id_sesji
+JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+GROUP BY sm.ocena
+ORDER BY liczba DESC
+LIMIT 1;</t>
+  </si>
+  <si>
+    <t>SELECT sm.ocena, COUNT(*) AS liczba
+FROM session_mark sm
+JOIN sesja s ON sm.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+GROUP BY sm.ocena
+ORDER BY liczba DESC
+LIMIT 1;</t>
+  </si>
+  <si>
+    <t>SELECT sm.ocena, COUNT(*) AS liczba
+FROM session_mark sm
+JOIN sesja s ON sm.id_sesji = s.id_sesji
+JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+GROUP BY sm.ocena
+ORDER BY liczba DESC
+LIMIT 1;</t>
+  </si>
+  <si>
+    <t>SELECT ocena, COUNT(*) AS liczba
+FROM session_mark
+GROUP BY ocena
+ORDER BY liczba DESC
+LIMIT 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba wszystkich obserwacji z zadan, uzytkownikow którzy maja wyksztalcenie srednie (wyksztalcenie 1), a   wynik = 0, </t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0 AND u.id_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0 AND u.id_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0 AND u.id_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0 AND u.id_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0 AND u.id_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0 AND u.id_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0 AND u.id_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0 AND u.id_wyksztalcenia = 1
+  ) AS liczba_blednych_obserwacji_dla_wyksztalcenie_1;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0 AND u.id_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0 AND u.id_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0 AND u.id_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0 AND u.id_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0 AND u.id_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0 AND u.id_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0 AND u.id_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0 AND u.id_wyksztalcenia = 2
+  ) AS liczba_blednych_obserwacji_dla_wyksztalcenie_2;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0 AND u.id_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0 AND u.id_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0 AND u.id_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0 AND u.id_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0 AND u.id_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0 AND u.id_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0 AND u.id_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0 AND u.id_wyksztalcenia = 3
+  ) AS liczba_blednych_obserwacji_dla_wyksztalcenie_3;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0 AND u.id_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0 AND u.id_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0 AND u.id_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0 AND u.id_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0 AND u.id_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0 AND u.id_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0 AND u.id_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0 AND u.id_wyksztalcenia = 4
+  ) AS liczba_blednych_obserwacji_dla_wyksztalcenie_4;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 1 AND u.id_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 1 AND u.id_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 1 AND u.id_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 1 AND u.id_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 1 AND u.id_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 1 AND u.id_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 1 AND u.id_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 1 AND u.id_wyksztalcenia = 4
+  ) AS liczba_poprawnych_obserwacji_dla_wyksztalcenie_4;"</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 1 AND u.id_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 1 AND u.id_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 1 AND u.id_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 1 AND u.id_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 1 AND u.id_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 1 AND u.id_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 1 AND u.id_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 1 AND u.id_wyksztalcenia = 1
+  ) AS liczba_poprawnych_obserwacji_dla_wyksztalcenie_1 ;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 1 AND u.id_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 1 AND u.id_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0 AND u.id_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 1 AND u.id_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 1 AND u.id_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 1 AND u.id_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 1 AND u.id_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 1 AND u.id_wyksztalcenia = 2
+  ) AS liczba_poprawnych_obserwacji_dla_wyksztalcenie_2;"</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 1 AND u.id_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 1 AND u.id_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 1 AND u.id_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 1 AND u.id_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 1 AND u.id_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 1 AND u.id_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 1 AND u.id_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 1 AND u.id_wyksztalcenia = 3
+  ) AS liczba_poprawnych_obserwacji_dla_wyksztalcenie_3;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba wszystkich obserwacji z zadan, uzytkownikow którzy sa w trakcie studiow  (wyksztalcenie 2, a   wynik = 0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba wszystkich obserwacji z zadan, uzytkownikow którzy maja wyksztalcenie wyzsze  (wyksztalcenie 3, a   wynik = 0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba wszystkich obserwacji z zadan, uzytkownikow którzy maja wyksztalcenie inne  (wyksztalcenie 4, a   wynik = 0, </t>
+  </si>
+  <si>
+    <t>liczba wszystkich obserwacji z zadan, uzytkownikow którzy maja wyksztalcenie srednie (wyksztalcenie 1), a   wynik = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba wszystkich obserwacji z zadan, uzytkownikow którzy sa w trakcie studiow  (wyksztalcenie 2, a   wynik = 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba wszystkich obserwacji z zadan, uzytkownikow którzy maja wyksztalcenie wyzsze  (wyksztalcenie 3, a   wynik =1 </t>
+  </si>
+  <si>
+    <t>liczba wszystkich obserwacji z zadan, uzytkownikow którzy maja wyksztalcenie inne  (wyksztalcenie 4, a   wynik = 1</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 2
+  ) AS liczba_blednych_obserwacji_informatycy;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 1
+  ) AS liczba_blednych_obserwacji_marketing;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 3
+  ) AS liczba_blednych_obserwacji_ekonomia;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 4
+  ) AS liczba_blednych_obserwacji_humanistyka;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 5
+  ) AS liczba_blednych_obserwacji_zarzadzanie;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 6
+  ) AS liczba_blednych_obserwacji_architektura;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 7
+  ) AS liczba_blednych_obserwacji_prawo;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0 AND u.id_rodzaju_wyksztalcenia = 8
+  ) AS liczba_blednych_obserwacji_medycyna;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 1
+  ) AS liczba_blednych_obserwacji_marketing;</t>
+  </si>
+  <si>
+    <t>"SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 3
+  ) AS liczba_blednych_obserwacji_ekonomia;"</t>
+  </si>
+  <si>
+    <t>"SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 4
+  ) AS liczba_poprawnych_obserwacji_humanistyka;"</t>
+  </si>
+  <si>
+    <t>"SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 5
+  ) AS liczba_poprawnych_obserwacji_zarzadzanie;"</t>
+  </si>
+  <si>
+    <t>"SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 6
+  ) AS liczba_poprawnych_obserwacji_architektura;"</t>
+  </si>
+  <si>
+    <t>"SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 7
+  ) AS liczba_poprawnych_obserwacji_prawo;"</t>
+  </si>
+  <si>
+    <t>"SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 1 AND u.id_rodzaju_wyksztalcenia = 8
+  ) AS liczba_poprawnych_obserwacji_medycyna;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0 AND u.id_zawodu = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0 AND u.id_zawodu = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0 AND u.id_zawodu = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0 AND u.id_zawodu = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0 AND u.id_zawodu = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0 AND u.id_zawodu = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0 AND u.id_zawodu = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0 AND u.id_zawodu = 1
+  ) AS liczba_blednych_obserwacji_dla_zawod_1;
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0 AND u.id_zawodu = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0 AND u.id_zawodu = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0 AND u.id_zawodu = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0 AND u.id_zawodu = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0 AND u.id_zawodu = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0 AND u.id_zawodu = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0 AND u.id_zawodu = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0 AND u.id_zawodu = 2
+  ) AS liczba_blednych_obserwacji_dla_zawod_2;
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0 AND u.id_zawodu = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0 AND u.id_zawodu = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0 AND u.id_zawodu = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0 AND u.id_zawodu = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0 AND u.id_zawodu = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0 AND u.id_zawodu = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0 AND u.id_zawodu = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0 AND u.id_zawodu = 3
+  ) AS liczba_blednych_obserwacji_dla_zawod_3;
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0 AND u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0 AND u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0 AND u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0 AND u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0 AND u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0 AND u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0 AND u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0 AND u.id_zawodu = 4
+  ) AS liczba_blednych_obserwacji_dla_zawod_4;
+  SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0 AND u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0 AND u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0 AND u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0 AND u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0 AND u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0 AND u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0 AND u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0 AND u.id_zawodu = 4
+  ) AS liczba_blednych_obserwacji_dla_zawod_4;
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0 AND u.id_zawodu = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0 AND u.id_zawodu = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0 AND u.id_zawodu = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0 AND u.id_zawodu = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0 AND u.id_zawodu = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0 AND u.id_zawodu = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0 AND u.id_zawodu = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0 AND u.id_zawodu = 5
+  ) AS liczba_blednych_obserwacji_dla_zawod_5;
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0 AND u.id_zawodu = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0 AND u.id_zawodu = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0 AND u.id_zawodu = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0 AND u.id_zawodu = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0 AND u.id_zawodu = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0 AND u.id_zawodu = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0 AND u.id_zawodu = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0 AND u.id_zawodu = 6
+  ) AS liczba_blednych_obserwacji_dla_zawod_6;
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0 AND u.id_zawodu = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0 AND u.id_zawodu = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0 AND u.id_zawodu = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0 AND u.id_zawodu = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0 AND u.id_zawodu = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0 AND u.id_zawodu = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0 AND u.id_zawodu = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0 AND u.id_zawodu = 7
+  ) AS liczba_blednych_obserwacji_dla_zawod_7;
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0 AND u.id_zawodu = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0 AND u.id_zawodu = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0 AND u.id_zawodu = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0 AND u.id_zawodu = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0 AND u.id_zawodu = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0 AND u.id_zawodu = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0 AND u.id_zawodu = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0 AND u.id_zawodu = 8
+  ) AS liczba_blednych_obserwacji_dla_zawod_8;
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 0 AND u.id_zawodu = 9
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 0 AND u.id_zawodu = 9
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 0 AND u.id_zawodu = 9
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 0 AND u.id_zawodu = 9
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 0 AND u.id_zawodu = 9
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 0 AND u.id_zawodu = 9
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 0 AND u.id_zawodu = 9
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 0 AND u.id_zawodu = 9
+  ) AS liczba_blednych_obserwacji_dla_zawod_9;
+  </t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 1 AND u.id_zawodu = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 1 AND u.id_zawodu = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 1 AND u.id_zawodu = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 1 AND u.id_zawodu = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 1 AND u.id_zawodu = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 1 AND u.id_zawodu = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 1 AND u.id_zawodu = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 1 AND u.id_zawodu = 1
+  ) AS liczba_blednych_obserwacji_dla_zawod_1;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 1 AND u.id_zawodu = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 1 AND u.id_zawodu = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 1 AND u.id_zawodu = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 1 AND u.id_zawodu = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 1 AND u.id_zawodu = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 1 AND u.id_zawodu = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 1 AND u.id_zawodu = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 1 AND u.id_zawodu = 2
+  ) AS liczba_blednych_obserwacji_dla_zawod_2;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 1 AND u.id_zawodu = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 1 AND u.id_zawodu = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 1 AND u.id_zawodu = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 1 AND u.id_zawodu = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 1 AND u.id_zawodu = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 1 AND u.id_zawodu = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 1 AND u.id_zawodu = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 1 AND u.id_zawodu = 3
+  ) AS liczba_blednych_obserwacji_dla_zawod_3;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 1 AND u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 1 AND u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 1 AND u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 1 AND u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 1 AND u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 1 AND u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 1 AND u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 1 AND u.id_zawodu = 4
+  ) AS liczba_blednych_obserwacji_dla_zawod_4;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 1 AND u.id_zawodu = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 1 AND u.id_zawodu = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 1 AND u.id_zawodu = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 1 AND u.id_zawodu = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 1 AND u.id_zawodu = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 1 AND u.id_zawodu = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 1 AND u.id_zawodu = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 1 AND u.id_zawodu = 5
+  ) AS liczba_blednych_obserwacji_dla_zawod_5;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 1 AND u.id_zawodu = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 1 AND u.id_zawodu = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 1 AND u.id_zawodu = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 1 AND u.id_zawodu = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 1 AND u.id_zawodu = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 1 AND u.id_zawodu = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 1 AND u.id_zawodu = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 1 AND u.id_zawodu = 6
+  ) AS liczba_blednych_obserwacji_dla_zawod_6;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 1 AND u.id_zawodu = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 1 AND u.id_zawodu = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 1 AND u.id_zawodu = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 1 AND u.id_zawodu = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 1 AND u.id_zawodu = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 1 AND u.id_zawodu = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 1 AND u.id_zawodu = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 1 AND u.id_zawodu = 7
+  ) AS liczba_blednych_obserwacji_dla_zawod_7;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 1 AND u.id_zawodu = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 1 AND u.id_zawodu = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 1 AND u.id_zawodu = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 1 AND u.id_zawodu = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 1 AND u.id_zawodu = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 1 AND u.id_zawodu = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 1 AND u.id_zawodu = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 1 AND u.id_zawodu = 8
+  ) AS liczba_blednych_obserwacji_dla_zawod_8;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE fh.wynik = 1 AND u.id_zawodu = 9
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE f.wynik = 1 AND u.id_zawodu = 9
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE k.wynik = 1 AND u.id_zawodu = 9
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE m.wynik = 1 AND u.id_zawodu = 9
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE p.wynik = 1 AND u.id_zawodu = 9
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE q.wynik = 1 AND u.id_zawodu = 9
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE sp.wynik = 1 AND u.id_zawodu = 9
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE tp.wynik = 1 AND u.id_zawodu = 9
+  ) AS liczba_blednych_obserwacji_dla_zawod_9;</t>
+  </si>
+  <si>
+    <t>Probne dane!!</t>
+  </si>
+  <si>
+    <t>wykszt/wynik</t>
+  </si>
+  <si>
+    <t>import scipy.stats as stats</t>
+  </si>
+  <si>
+    <t># macierz kontyngencji</t>
+  </si>
+  <si>
+    <t>data = [[300, 320],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [400, 340],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [500, 405]]</t>
+  </si>
+  <si>
+    <t>chi2, p, dof, expected = stats.chi2_contingency(data)</t>
+  </si>
+  <si>
+    <t>print(f"Wartość statystyki chi²: {chi2:.2f}")</t>
+  </si>
+  <si>
+    <t>print(f"Wartość p: {p:.4f}")</t>
+  </si>
+  <si>
+    <t>print(f"Liczba stopni swobody: {dof}")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czy istnieje zaleznosc? </t>
+  </si>
+  <si>
+    <t>https://python-fiddle.com/examples/scipy?checkpoint=1747429581</t>
+  </si>
+  <si>
+    <t>wszystkie</t>
+  </si>
+  <si>
+    <t>"
+SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna'
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna'
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna'
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna'
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna'
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna'
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna'
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna'
+  ) AS liczba_obserwacji_dla_mezczyzn;"</t>
+  </si>
+  <si>
+    <t>liczba wszystkich obserwacj z zadan , którzy należą do widoku uzytkownicy_young (taka sama struktura jak tabela uzytkownicy</t>
+  </si>
+  <si>
+    <t>liczba wszystkich obserwacj z zadan , którzy należą do widoku uzytkownicy_mid</t>
+  </si>
+  <si>
+    <t>liczba wszystkich obserwacj z zadan , którzy należą do widoku uzytkownicy_old (taka sama struktura jak tabela uzytkownicy)</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy_young u ON s.id_uzytkownika = u.id_uzytkownika
+  ) AS liczba_obserwacji_uzytkownicy_young;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy_mid u ON s.id_uzytkownika = u.id_uzytkownika
+  ) AS liczba_obserwacji_uzytkownicy_mid;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy_old u ON s.id_uzytkownika = u.id_uzytkownika
+  ) AS liczba_obserwacji_uzytkownicy_old;</t>
+  </si>
+  <si>
+    <t>liczba wszystkich obserwacji z zadan, uzytkownikow którzy maja wyksztalcenie srednie (wyksztalcenie 1)</t>
+  </si>
+  <si>
+    <t>liczba wszystkich obserwacji z zadan, uzytkownikow którzy sa w trakcie studiow  (wyksztalcenie 2)</t>
+  </si>
+  <si>
+    <t>liczba wszystkich obserwacji z zadan, uzytkownikow którzy sa w trakcie studiow  (wyksztalcenie 3)</t>
+  </si>
+  <si>
+    <t>liczba wszystkich obserwacji z zadan, uzytkownikow którzy sa w trakcie studiow  (wyksztalcenie 4)</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 1
+  ) AS liczba_obserwacji_wyksztalcenie_srednie;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 2
+  ) AS liczba_obserwacji_wyksztalcenie_srednie;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 3
+  ) AS liczba_obserwacji_wyksztalcenie_srednie;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_wyksztalcenia = 4
+  ) AS liczba_obserwacji_wyksztalcenie_srednie;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 1
+  ) AS liczba_obserwacji_rodzaj_wyksztalcenia_1;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 3
+  ) AS liczba_obserwacji_rodzaj_wyksztalcenia_3;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 4
+  ) AS liczba_obserwacji_rodzaj_wyksztalcenia_4;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 5
+  ) AS liczba_obserwacji_rodzaj_wyksztalcenia_5;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 6
+  ) AS liczba_obserwacji_rodzaj_wyksztalcenia_6;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 7
+  ) AS liczba_obserwacji_rodzaj_wyksztalcenia_7;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_rodzaju_wyksztalcenia = 8
+  ) AS liczba_obserwacji_rodzaj_wyksztalcenia_8;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 1
+  ) AS liczba_obserwacji_zawod_1;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 2
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 2
+  ) AS liczba_obserwacji_zawod_2;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 3
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 3
+  ) AS liczba_obserwacji_zawod_3;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 4
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 4
+  ) AS liczba_obserwacji_zawod_4;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 5
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 5
+  ) AS liczba_obserwacji_zawod_5;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 6
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 6
+  ) AS liczba_obserwacji_zawod_6;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 7
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 7
+  ) AS liczba_obserwacji_zawod_7;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 8
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 8
+  ) AS liczba_obserwacji_zawod_8;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 9
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 9
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 9
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 9
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 9
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 9
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 9
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.id_zawodu = 9
+  ) AS liczba_obserwacji_zawod_9;</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których użytkownik, ze wszystkich stylow, ma najwiecej punktow w kategorii stylu intuicyjnym</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których użytkownik, ze wszystkich stylow, ma najwiecej punktow w kategorii stylu zależnym</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których użytkownik, ze wszystkich stylow, ma najwiecej punktow w kategorii stylu unikającym</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których użytkownik ma najwiecej punktow w racjonalnym</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których użytkownik ma najwiecej punktow w spontanicznym</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN GDMS g ON fh.id_sesji = g.id_sesji
+    WHERE g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN GDMS g ON f.id_sesji = g.id_sesji
+	where g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN GDMS g ON k.id_sesji = g.id_sesji
+    WHERE g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN GDMS g ON m.id_sesji = g.id_sesji
+    WHERE g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN GDMS g ON p.id_sesji = g.id_sesji
+    WHERE g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN GDMS g ON q.id_sesji = g.id_sesji
+    WHERE g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN GDMS g ON sp.id_sesji = g.id_sesji
+    WHERE g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN GDMS g ON tp.id_sesji = g.id_sesji
+    WHERE g.points_intuitive &gt; g.points_rational
+      AND g.points_intuitive &gt; g.points_dependency
+      AND g.points_intuitive &gt; g.points_instant
+      AND g.points_intuitive &gt; g.points_avoidance
+  ) AS liczba_obserwacji_intuicyjnych;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN GDMS g ON fh.id_sesji = g.id_sesji
+    WHERE g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN GDMS g ON f.id_sesji = g.id_sesji
+    WHERE g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN GDMS g ON k.id_sesji = g.id_sesji
+    WHERE g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN GDMS g ON m.id_sesji = g.id_sesji
+    WHERE g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN GDMS g ON p.id_sesji = g.id_sesji
+    WHERE g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN GDMS g ON q.id_sesji = g.id_sesji
+    WHERE g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN GDMS g ON sp.id_sesji = g.id_sesji
+    WHERE g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN GDMS g ON tp.id_sesji = g.id_sesji
+    WHERE g.points_rational &gt; g.points_intuitive
+      AND g.points_rational &gt; g.points_dependency
+      AND g.points_rational &gt; g.points_instant
+      AND g.points_rational &gt; g.points_avoidance
+  ) AS liczba_obserwacji_dla_stylu_racjonalnego;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN GDMS g ON fh.id_sesji = g.id_sesji
+    WHERE g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN GDMS g ON f.id_sesji = g.id_sesji
+    WHERE g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN GDMS g ON k.id_sesji = g.id_sesji
+    WHERE g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN GDMS g ON m.id_sesji = g.id_sesji
+    WHERE g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN GDMS g ON p.id_sesji = g.id_sesji
+    WHERE g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN GDMS g ON q.id_sesji = g.id_sesji
+    WHERE g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN GDMS g ON sp.id_sesji = g.id_sesji
+    WHERE g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN GDMS g ON tp.id_sesji = g.id_sesji
+    WHERE g.points_dependency &gt; g.points_intuitive
+      AND g.points_dependency &gt; g.points_rational
+      AND g.points_dependency &gt; g.points_instant
+      AND g.points_dependency &gt; g.points_avoidance
+  ) AS liczba_obserwacji_dla_stylu_zaleznego;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN GDMS g ON fh.id_sesji = g.id_sesji
+    WHERE g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN GDMS g ON f.id_sesji = g.id_sesji
+    WHERE g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN GDMS g ON k.id_sesji = g.id_sesji
+    WHERE g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN GDMS g ON m.id_sesji = g.id_sesji
+    WHERE g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN GDMS g ON p.id_sesji = g.id_sesji
+    WHERE g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN GDMS g ON q.id_sesji = g.id_sesji
+    WHERE g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN GDMS g ON sp.id_sesji = g.id_sesji
+    WHERE g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN GDMS g ON tp.id_sesji = g.id_sesji
+    WHERE g.points_instant &gt; g.points_intuitive
+      AND g.points_instant &gt; g.points_rational
+      AND g.points_instant &gt; g.points_dependency
+      AND g.points_instant &gt; g.points_avoidance
+  ) AS liczba_obserwacji_styl_spontaniczny;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +5302,36 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -397,7 +5341,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -405,11 +5349,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -434,6 +5495,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -449,10 +5547,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -772,10 +5866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084DE96A-C944-4B83-A342-5960260262FF}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -783,9 +5877,11 @@
     <col min="1" max="1" width="17.08984375" customWidth="1"/>
     <col min="2" max="2" width="51.90625" customWidth="1"/>
     <col min="3" max="3" width="49.1796875" customWidth="1"/>
+    <col min="4" max="4" width="37.26953125" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -795,8 +5891,14 @@
       <c r="C1" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -807,7 +5909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -816,6 +5918,62 @@
       </c>
       <c r="C3" t="s">
         <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>500</v>
+      </c>
+      <c r="K4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>430</v>
+      </c>
+      <c r="K5">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:4" ht="20.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:4" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -825,22 +5983,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEC5D00-F1B4-4EC0-AF33-F3FD854D9888}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="49.26953125" customWidth="1"/>
+    <col min="2" max="2" width="66.90625" customWidth="1"/>
     <col min="3" max="3" width="52.1796875" customWidth="1"/>
+    <col min="4" max="4" width="80.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -848,63 +6007,219 @@
       <c r="C1" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C19" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C20" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C21" s="4" t="s">
+      <c r="B4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C22" s="4" t="s">
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C23" s="4" t="s">
+    <row r="6" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="209" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="199.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E12" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="10">
+        <v>300</v>
+      </c>
+      <c r="C16" s="10">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10">
+        <v>400</v>
+      </c>
+      <c r="C17" s="10">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="10">
+        <v>500</v>
+      </c>
+      <c r="C18" s="10">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -914,135 +6229,494 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9622A87E-80E9-4181-B002-9AB31E5FC468}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="2" max="2" width="31.54296875" customWidth="1"/>
+    <col min="2" max="2" width="59.81640625" customWidth="1"/>
     <col min="3" max="3" width="46.6328125" customWidth="1"/>
     <col min="4" max="4" width="58.1796875" customWidth="1"/>
+    <col min="5" max="5" width="28.36328125" customWidth="1"/>
+    <col min="6" max="6" width="34.453125" customWidth="1"/>
+    <col min="7" max="7" width="29.90625" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="F1" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="26">
+        <v>0</v>
+      </c>
+      <c r="C2" s="27">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="F2" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
+      <c r="B5" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="139.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D26" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D27" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D28" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D29" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>1</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>2</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <v>3</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>4</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="216.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="229" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="177" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B43" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44" s="13">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>181</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="10">
+        <v>400</v>
+      </c>
+      <c r="C45" s="10">
+        <v>500</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="10">
+        <v>333</v>
+      </c>
+      <c r="G45" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="10">
+        <v>230</v>
+      </c>
+      <c r="C46" s="10">
+        <v>430</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="10">
+        <v>444</v>
+      </c>
+      <c r="G46" s="10">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D30" s="4" t="s">
-        <v>34</v>
+    <row r="47" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="10">
+        <v>444</v>
+      </c>
+      <c r="C47" s="10">
+        <v>333</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="10">
+        <v>555</v>
+      </c>
+      <c r="G47" s="10">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="10">
+        <v>555</v>
+      </c>
+      <c r="C48" s="10">
+        <v>555</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="10">
+        <v>44</v>
+      </c>
+      <c r="G48" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E49" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="10">
+        <v>44</v>
+      </c>
+      <c r="G49" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E50" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="10">
+        <v>55</v>
+      </c>
+      <c r="G50" s="10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E51" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="10">
+        <v>32</v>
+      </c>
+      <c r="G51" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E52" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="10">
+        <v>43</v>
+      </c>
+      <c r="G52" s="10">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1052,10 +6726,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2044B6-58F4-43C3-AF97-50B7E828438F}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D11" sqref="D10:D11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1063,16 +6737,17 @@
     <col min="1" max="1" width="21.81640625" customWidth="1"/>
     <col min="2" max="2" width="47.90625" customWidth="1"/>
     <col min="3" max="3" width="45.81640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -1080,149 +6755,294 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="71" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="61" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="10">
+        <v>300</v>
+      </c>
+      <c r="C30" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="9" t="s">
+      <c r="B31" s="10">
+        <v>222</v>
+      </c>
+      <c r="C31" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="9" t="s">
+      <c r="B32" s="10">
+        <v>222</v>
+      </c>
+      <c r="C32" s="10">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="9" t="s">
+      <c r="B33" s="10">
+        <v>333</v>
+      </c>
+      <c r="C33" s="10">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="8" t="s">
+      <c r="B34" s="10">
+        <v>555</v>
+      </c>
+      <c r="C34" s="10">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="8" t="s">
+      <c r="B35" s="10">
+        <v>444</v>
+      </c>
+      <c r="C35" s="10">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="8" t="s">
+      <c r="B36" s="10">
+        <v>333</v>
+      </c>
+      <c r="C36" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="8" t="s">
+      <c r="B37" s="10">
+        <v>445</v>
+      </c>
+      <c r="C37" s="10">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="8" t="s">
-        <v>69</v>
+      <c r="B38" s="10">
+        <v>545</v>
+      </c>
+      <c r="C38" s="10">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +7052,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB464E44-03C8-4D86-859F-D3259DE751FB}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1248,72 +7068,383 @@
   <sheetData>
     <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="B7" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="B8" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="B9" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="6"/>
+      <c r="C15" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="6"/>
+      <c r="C16" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="6"/>
+      <c r="C17" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20709ED5-BF55-4B59-A490-6430BC550FE1}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="2" max="2" width="57.08984375" customWidth="1"/>
+    <col min="3" max="3" width="47.90625" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="136" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="73" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="161" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="129.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="145.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="10">
+        <v>223</v>
+      </c>
+      <c r="C20" s="10">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="10">
+        <v>545</v>
+      </c>
+      <c r="C21" s="10">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="10">
+        <v>433</v>
+      </c>
+      <c r="C22" s="10">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="10">
+        <v>434</v>
+      </c>
+      <c r="C23" s="10">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="10">
+        <v>554</v>
+      </c>
+      <c r="C24" s="10">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/Others/Analiza_wynikow.xlsx
+++ b/Others/Analiza_wynikow.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wojte\Documents\GitHub\Kahneman_Fial\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A556D22C-890A-40E4-9C47-1F4EB5570820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F2913E-B00A-4C6E-A314-87A0252F91FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-6840" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{EFECA579-AF2B-4EED-B446-CCE1B9F9443D}"/>
+    <workbookView xWindow="-38520" yWindow="-6840" windowWidth="38640" windowHeight="21120" xr2:uid="{EFECA579-AF2B-4EED-B446-CCE1B9F9443D}"/>
   </bookViews>
   <sheets>
-    <sheet name="5.3" sheetId="1" r:id="rId1"/>
-    <sheet name="5.4" sheetId="2" r:id="rId2"/>
+    <sheet name="5.2" sheetId="7" r:id="rId1"/>
+    <sheet name="5.3" sheetId="1" r:id="rId2"/>
     <sheet name="5.5" sheetId="3" r:id="rId3"/>
-    <sheet name="5.6" sheetId="5" r:id="rId4"/>
-    <sheet name="5.7" sheetId="4" r:id="rId5"/>
-    <sheet name="6.8" sheetId="6" r:id="rId6"/>
+    <sheet name="5.4" sheetId="2" r:id="rId4"/>
+    <sheet name="5.6" sheetId="5" r:id="rId5"/>
+    <sheet name="5.7" sheetId="4" r:id="rId6"/>
+    <sheet name="6.8" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="519">
   <si>
     <t xml:space="preserve">male </t>
   </si>
@@ -5249,12 +5250,1641 @@
       AND g.points_instant &gt; g.points_avoidance
   ) AS liczba_obserwacji_styl_spontaniczny;</t>
   </si>
+  <si>
+    <t>framing</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to kolory i wynik to 0</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to kolory i wynik to 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba obserwacji, w których zadanie to kolory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(*) from kolory  where wynik  = 0; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(*) from kolory  where wynik  = 1; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(*) from kolory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(*) from false_hierarchy  where wynik  = 0; </t>
+  </si>
+  <si>
+    <t>false_hierarchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(*) from false_hierarchy  where wynik  = 1; </t>
+  </si>
+  <si>
+    <t>select count(*) from false_hierarchy</t>
+  </si>
+  <si>
+    <t>misdirections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(*) from misdirections  where wynik  = 0; </t>
+  </si>
+  <si>
+    <t>select count(*) from misdirections  where wynik  = 1 ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(*) from misdirections </t>
+  </si>
+  <si>
+    <t>kolory</t>
+  </si>
+  <si>
+    <t>questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(*) from questions  where wynik  = 0; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(*) from questions  where wynik  = 1; </t>
+  </si>
+  <si>
+    <t>select count(*) from questions</t>
+  </si>
+  <si>
+    <t>preselections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(*) from preselections  where wynik  = 0; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(*) from preselections  where wynik  = 1; </t>
+  </si>
+  <si>
+    <t>select count(*) from preselections;</t>
+  </si>
+  <si>
+    <t>timepressing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(*) from timepressing  where wynik  = 0; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(*) from timepressing  where wynik  = 1; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(*) from timepressing; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(*) from framing  where wynik  = 0; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(*) from framing  where wynik  = 1; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(*) from framing; </t>
+  </si>
+  <si>
+    <t>socialproof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(*) from socialproof  where wynik  = 0; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(*) from socialproof  where wynik  = 1; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(*) from socialproof; </t>
+  </si>
+  <si>
+    <t>liczba wszystkich obserwacji w których wynik to  0</t>
+  </si>
+  <si>
+    <t>liczba wszystkich obserwacji w których wynik to  1</t>
+  </si>
+  <si>
+    <t>liczba wszystkich obserwacji</t>
+  </si>
+  <si>
+    <t>SELECT
+  SUM(zero_count) AS liczba_wszystkich_wynikow_0
+FROM (
+  SELECT COUNT(*) AS zero_count FROM kolory WHERE wynik = 0
+  UNION ALL
+  SELECT COUNT(*) FROM framing WHERE wynik = 0
+  UNION ALL
+  SELECT COUNT(*) FROM preselections WHERE wynik = 0
+  UNION ALL
+  SELECT COUNT(*) FROM misdirections WHERE wynik = 0
+  UNION ALL
+  SELECT COUNT(*) FROM false_hierarchy WHERE wynik = 0
+  UNION ALL
+  SELECT COUNT(*) FROM socialproof WHERE wynik = 0
+  UNION ALL
+  SELECT COUNT(*) FROM timepressing WHERE wynik = 0
+  UNION ALL
+  SELECT COUNT(*) FROM questions WHERE wynik = 0
+) AS sub;</t>
+  </si>
+  <si>
+    <t>SELECT
+  SUM(one_count) AS liczba_wszystkich_wynikow_1
+FROM (
+  SELECT COUNT(*) AS one_count FROM kolory WHERE wynik = 1
+  UNION ALL
+  SELECT COUNT(*) FROM framing WHERE wynik = 1
+  UNION ALL
+  SELECT COUNT(*) FROM preselections WHERE wynik = 1
+  UNION ALL
+  SELECT COUNT(*) FROM misdirections WHERE wynik = 1
+  UNION ALL
+  SELECT COUNT(*) FROM false_hierarchy WHERE wynik = 1
+  UNION ALL
+  SELECT COUNT(*) FROM socialproof WHERE wynik = 1
+  UNION ALL
+  SELECT COUNT(*) FROM timepressing WHERE wynik = 1
+  UNION ALL
+  SELECT COUNT(*) FROM questions WHERE wynik = 1
+) AS sub;</t>
+  </si>
+  <si>
+    <t>SELECT
+  SUM(all_count) AS liczba_wszystkich_obserwacji
+FROM (
+  SELECT COUNT(*) AS all_count FROM kolory
+  UNION ALL
+  SELECT COUNT(*) FROM framing
+  UNION ALL
+  SELECT COUNT(*) FROM preselections
+  UNION ALL
+  SELECT COUNT(*) FROM misdirections
+  UNION ALL
+  SELECT COUNT(*) FROM false_hierarchy
+  UNION ALL
+  SELECT COUNT(*) FROM socialproof
+  UNION ALL
+  SELECT COUNT(*) FROM timepressing
+  UNION ALL
+  SELECT COUNT(*) FROM questions
+) AS sub;</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>liczba obserwacji gdzie timeout</t>
+  </si>
+  <si>
+    <t>SELECT
+  SUM(timeout_count) AS liczba_timeoutow
+FROM (
+  SELECT COUNT(*) AS timeout_count FROM kolory WHERE timeout = 1
+  UNION ALL
+  SELECT COUNT(*) FROM framing WHERE timeout = 1
+  UNION ALL
+  SELECT COUNT(*) FROM preselections WHERE timeout = 1
+  UNION ALL
+  SELECT COUNT(*) FROM misdirections WHERE timeout = 1
+  UNION ALL
+  SELECT COUNT(*) FROM false_hierarchy WHERE timeout = 1
+  UNION ALL
+  SELECT COUNT(*) FROM socialproof WHERE timeout = 1
+  UNION ALL
+  SELECT COUNT(*) FROM timepressing WHERE timeout = 1
+  UNION ALL
+  SELECT COUNT(*) FROM questions WHERE timeout = 1
+) AS sub;</t>
+  </si>
+  <si>
+    <t>select count(*) from kolory  where timeout = 1</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to kolory i timeout</t>
+  </si>
+  <si>
+    <t>select count(*) from false_hierarchy  where timeout = 1</t>
+  </si>
+  <si>
+    <t>select count(*) from misdirections  where timeout = 1</t>
+  </si>
+  <si>
+    <t>select count(*) from questions  where timeout = 1</t>
+  </si>
+  <si>
+    <t>select count(*) from preselections  where timeout = 1</t>
+  </si>
+  <si>
+    <t>select count(*) from timepressing  where timeout = 1</t>
+  </si>
+  <si>
+    <t>select count(*) from framing  where timeout = 1</t>
+  </si>
+  <si>
+    <t>select count(*) from socialproof  where timeout = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba wszystkich obserwacji w których wynik to  0 a max_czas = 5 </t>
+  </si>
+  <si>
+    <t>krotki czas</t>
+  </si>
+  <si>
+    <t>dlugi czas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba wszystkich obserwacji w których wynik to  0 a max_czas =30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba wszystkich obserwacji w  max_czas =30 </t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to kolory i wynik to 0 i max_czas = 5</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to kolory i wynik to 1 i max_czas = 5</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to kolory i max_czas = 5</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to kolory i wynik to 0 i max_czas = 30</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to kolory i wynik to  1 i max_czas = 30</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to kolory i max_czas = 30</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM kolory
+WHERE wynik = 0 AND max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM kolory
+WHERE wynik =1 AND max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM kolory
+WHERE  max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM kolory
+WHERE wynik = 0 AND max_czas = 30;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM kolory
+WHERE wynik =1 AND max_czas =30;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM kolory
+WHERE  max_czas = 30;</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to false_hierarchy i wynik to 0 i max_czas = 5</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to false_hierarchy i wynik to 1 i max_czas = 5</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to false_hierarchy i max_czas = 5</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM false_hierarchy
+WHERE wynik = 0 AND max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM false_hierarchy
+WHERE wynik =1 AND max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM false_hierarchy
+WHERE  max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM false_hierarchy
+WHERE wynik = 0 AND max_czas = 30;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM false_hierarchy
+WHERE wynik =1 AND max_czas =30;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM false_hierarchy
+WHERE  max_czas = 30;</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to misdirections  i wynik to 0 i max_czas = 5</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to misdirections i wynik to 1 i max_czas = 5</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to misdirections i max_czas = 5</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM misdirections
+WHERE wynik = 0 AND max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM misdirections
+WHERE wynik =1 AND max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM misdirections
+WHERE  max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM misdirections
+WHERE  max_czas = 30;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM misdirections
+WHERE wynik =1 AND max_czas =30;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM misdirections
+WHERE wynik = 0 AND max_czas = 30;</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to questions  i wynik to 0 i max_czas = 5</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to questions i wynik to 1 i max_czas = 5</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to questions i max_czas = 5</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM questions
+WHERE wynik = 0 AND max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM questions
+WHERE wynik =1 AND max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM questions
+WHERE  max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM questions
+WHERE wynik = 0 AND max_czas = 30;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM questions
+WHERE wynik =1 AND max_czas =30;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM questions
+WHERE  max_czas = 30;</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to preselections  i wynik to 0 i max_czas = 5</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to preselections  i wynik to 1 i max_czas = 5</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to preselections i max_czas = 5</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM preselections
+WHERE wynik = 0 AND max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM preselections
+WHERE wynik =1 AND max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM preselections
+WHERE  max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM preselections
+WHERE  max_czas = 30;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM preselections
+WHERE wynik =1 AND max_czas =30;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM preselections
+WHERE wynik = 0 AND max_czas = 30;</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to timepressing  i wynik to 0 i max_czas = 5</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to timepressing  i wynik to 1 i max_czas = 5</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to timepressing i max_czas = 5</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM timepressing
+WHERE  max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM timepressing
+WHERE wynik =1 AND max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM timepressing
+WHERE wynik = 0 AND max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM timepressing
+WHERE wynik = 0 AND max_czas = 30;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM timepressing
+WHERE wynik =1 AND max_czas =30;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM timepressing
+WHERE  max_czas = 30;</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to framing  i wynik to 0 i max_czas = 5</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to framing  i wynik to 1 i max_czas = 5</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to framing i max_czas = 5</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM framing
+WHERE  max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM framing
+WHERE wynik =1 AND max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM framing
+WHERE wynik = 0 AND max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM framing
+WHERE wynik = 0 AND max_czas = 30;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM framing
+WHERE wynik =1 AND max_czas =30;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM framing
+WHERE  max_czas = 30;</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to socialproof  i wynik to 0 i max_czas = 5</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to socialproof  i wynik to 1 i max_czas = 5</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których zadanie to socialproof i max_czas = 5</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM socialproof
+WHERE  max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM socialproof
+WHERE wynik =1 AND max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM socialproof
+WHERE wynik = 0 AND max_czas = 5;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM socialproof
+WHERE wynik = 0 AND max_czas = 30;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM socialproof
+WHERE wynik =1 AND max_czas =30;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM socialproof
+WHERE  max_czas = 30;</t>
+  </si>
+  <si>
+    <t>liczba wszystkich obserwacji z zadan , którzy należą do widoku uzytkownicy_young (taka sama struktura jak tabela uzytkownicy i kolumna timeout w zadaniach = 1</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji_timeout
+FROM (
+    SELECT timeout FROM kolory
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_young USING (id_uzytkownika)
+    WHERE timeout = 1
+    UNION ALL
+    SELECT timeout FROM false_hierarchy
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_young USING (id_uzytkownika)
+    WHERE timeout = 1
+    UNION ALL
+    SELECT timeout FROM framing
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_young USING (id_uzytkownika)
+    WHERE timeout = 1
+    UNION ALL
+    SELECT timeout FROM misdirections
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_young USING (id_uzytkownika)
+    WHERE timeout = 1
+    UNION ALL
+    SELECT timeout FROM preselections
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_young USING (id_uzytkownika)
+    WHERE timeout = 1
+    UNION ALL
+    SELECT timeout FROM questions
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_young USING (id_uzytkownika)
+    WHERE timeout = 1
+    UNION ALL
+    SELECT timeout FROM socialproof
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_young USING (id_uzytkownika)
+    WHERE timeout = 1
+    UNION ALL
+    SELECT timeout FROM timepressing
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_young USING (id_uzytkownika)
+    WHERE timeout = 1
+) AS wszystkie;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT COUNT(*) AS liczba_obserwacji_timeout
+FROM (
+    SELECT timeout FROM kolory
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_mid USING (id_uzytkownika)
+    WHERE timeout = 1
+    UNION ALL
+    SELECT timeout FROM false_hierarchy
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_mid USING (id_uzytkownika)
+    WHERE timeout = 1
+    UNION ALL
+    SELECT timeout FROM framing
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_mid USING (id_uzytkownika)
+    WHERE timeout = 1
+    UNION ALL
+    SELECT timeout FROM misdirections
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_mid USING (id_uzytkownika)
+    WHERE timeout = 1
+    UNION ALL
+    SELECT timeout FROM preselections
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_mid USING (id_uzytkownika)
+    WHERE timeout = 1
+    UNION ALL
+    SELECT timeout FROM questions
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_mid USING (id_uzytkownika)
+    WHERE timeout = 1
+    UNION ALL
+    SELECT timeout FROM socialproof
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_mid USING (id_uzytkownika)
+    WHERE timeout = 1
+    UNION ALL
+    SELECT timeout FROM timepressing
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_mid USING (id_uzytkownika)
+    WHERE timeout = 1
+) AS wszystkie;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji_timeout
+FROM (
+    SELECT timeout FROM kolory
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_old USING (id_uzytkownika)
+    WHERE timeout = 1
+    UNION ALL
+    SELECT timeout FROM false_hierarchy
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_old USING (id_uzytkownika)
+    WHERE timeout = 1
+    UNION ALL
+    SELECT timeout FROM framing
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_old USING (id_uzytkownika)
+    WHERE timeout = 1
+    UNION ALL
+    SELECT timeout FROM misdirections
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_old USING (id_uzytkownika)
+    WHERE timeout = 1
+    UNION ALL
+    SELECT timeout FROM preselections
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_old USING (id_uzytkownika)
+    WHERE timeout = 1
+    UNION ALL
+    SELECT timeout FROM questions
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_old USING (id_uzytkownika)
+    WHERE timeout = 1
+    UNION ALL
+    SELECT timeout FROM socialproof
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_old USING (id_uzytkownika)
+    WHERE timeout = 1
+    UNION ALL
+    SELECT timeout FROM timepressing
+    JOIN sesja USING (id_sesji)
+    JOIN uzytkownicy_old USING (id_uzytkownika)
+    WHERE timeout = 1
+) AS wszystkie;</t>
+  </si>
+  <si>
+    <t>liczba wszystkich obserwacji z zadan , którzy należą do widoku uzytkownicy_mid (taka sama struktura jak tabela uzytkownicy i kolumna timeout w zadaniach = 1</t>
+  </si>
+  <si>
+    <t>liczba wszystkich obserwacji z zadan , którzy należą do widoku uzytkownicy_old (taka sama struktura jak tabela uzytkownicy i kolumna timeout w zadaniach = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba wszystkich obserwacji a max_czas = 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba wszystkich obserwacji w których wynik timeout,  a max_czas = 5 </t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM (
+    SELECT 1 FROM kolory WHERE wynik = 0 AND max_czas = 5
+    UNION ALL
+    SELECT 1 FROM false_hierarchy WHERE wynik = 0 AND max_czas = 5
+    UNION ALL
+    SELECT 1 FROM misdirections WHERE wynik = 0 AND max_czas = 5
+    UNION ALL
+    SELECT 1 FROM preselections WHERE wynik = 0 AND max_czas = 5
+    UNION ALL
+    SELECT 1 FROM questions WHERE wynik = 0 AND max_czas = 5
+) AS wszystkie;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM (
+    SELECT 1 FROM kolory WHERE wynik = 0 AND max_czas = 30
+    UNION ALL
+    SELECT 1 FROM false_hierarchy WHERE wynik = 0 AND max_czas = 30
+    UNION ALL
+    SELECT 1 FROM misdirections WHERE wynik = 0 AND max_czas = 30
+    UNION ALL
+    SELECT 1 FROM preselections WHERE wynik = 0 AND max_czas = 30
+    UNION ALL
+    SELECT 1 FROM questions WHERE wynik = 0 AND max_czas = 30
+) AS wszystkie;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba wszystkich obserwacji w których wynik to 1 a max_czas =30 </t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM (
+    SELECT 1 FROM kolory WHERE wynik = 1 AND max_czas = 30
+    UNION ALL
+    SELECT 1 FROM false_hierarchy WHERE wynik = 1 AND max_czas = 30
+    UNION ALL
+    SELECT 1 FROM misdirections WHERE wynik = 1 AND max_czas = 30
+    UNION ALL
+    SELECT 1 FROM preselections WHERE wynik = 1 AND max_czas = 30
+    UNION ALL
+    SELECT 1 FROM questions WHERE wynik = 1 AND max_czas = 30
+) AS wszystkie;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba wszystkich obserwacji w których wynik to 1  a max_czas = 5 </t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM (
+    SELECT 1 FROM kolory WHERE wynik = 1 AND max_czas = 5
+    UNION ALL
+    SELECT 1 FROM false_hierarchy WHERE wynik = 1 AND max_czas = 5
+    UNION ALL
+    SELECT 1 FROM misdirections WHERE wynik = 1 AND max_czas = 5
+    UNION ALL
+    SELECT 1 FROM preselections WHERE wynik = 1 AND max_czas = 5
+    UNION ALL
+    SELECT 1 FROM questions WHERE wynik = 1 AND max_czas = 5
+) AS wszystkie;"</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM (
+    SELECT 1 FROM kolory WHERE max_czas = 5
+    UNION ALL
+    SELECT 1 FROM false_hierarchy WHERE  max_czas = 5
+    UNION ALL
+    SELECT 1 FROM misdirections WHERE  max_czas = 5
+    UNION ALL
+    SELECT 1 FROM preselections WHERE max_czas = 5
+    UNION ALL
+    SELECT 1 FROM questions WHERE  max_czas = 5
+) AS wszystkie;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM (
+    SELECT 1 FROM kolory WHERE max_czas = 30
+    UNION ALL
+    SELECT 1 FROM false_hierarchy WHERE  max_czas = 30
+    UNION ALL
+    SELECT 1 FROM misdirections WHERE  max_czas = 30
+    UNION ALL
+    SELECT 1 FROM preselections WHERE max_czas = 30
+    UNION ALL
+    SELECT 1 FROM questions WHERE  max_czas = 30
+) AS wszystkie;</t>
+  </si>
+  <si>
+    <t>liczba wszystkich obserwacji w których wynik timeout,  a max_czas = 30</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM (
+    SELECT 1 FROM kolory WHERE max_czas = 30 and timeout = 1
+    UNION ALL
+    SELECT 1 FROM false_hierarchy WHERE  max_czas = 30 and timeout = 1
+    UNION ALL
+    SELECT 1 FROM misdirections WHERE  max_czas = 30 and timeout = 1
+    UNION ALL
+    SELECT 1 FROM preselections WHERE max_czas = 30 and timeout = 1
+    UNION ALL
+    SELECT 1 FROM questions WHERE  max_czas = 30 and timeout = 1
+) AS wszystkie;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM (
+    SELECT 1 FROM kolory WHERE max_czas = 5 and timeout = 1
+    UNION ALL
+    SELECT 1 FROM false_hierarchy WHERE  max_czas = 5 and timeout = 1
+    UNION ALL
+    SELECT 1 FROM misdirections WHERE  max_czas = 5 and timeout = 1
+    UNION ALL
+    SELECT 1 FROM preselections WHERE max_czas = 5 and timeout = 1
+    UNION ALL
+    SELECT 1 FROM questions WHERE  max_czas = 5 and timeout = 1
+) AS wszystkie;</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których płeć to „male”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iczba obserwacji, w których płeć to „female” </t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których płeć to „male” i timeout</t>
+  </si>
+  <si>
+    <t>liczba obserwacji, w których płeć to „female” i timeout</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna' AND fh.timeout = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna' AND f.timeout = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna' AND k.timeout = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna' AND m.timeout = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna' AND p.timeout = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna' AND q.timeout = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna' AND sp.timeout = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'mezczyzna' AND tp.timeout = 1
+  ) AS liczba_obserwacji_dla_mezczyzn;</t>
+  </si>
+  <si>
+    <t>SELECT
+  (
+    SELECT COUNT(*) FROM false_hierarchy fh
+    JOIN sesja s ON fh.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND fh.timeout = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM framing f
+    JOIN sesja s ON f.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND f.timeout = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM kolory k
+    JOIN sesja s ON k.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND k.timeout = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM misdirections m
+    JOIN sesja s ON m.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND m.timeout = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM preselections p
+    JOIN sesja s ON p.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND p.timeout = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM questions q
+    JOIN sesja s ON q.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND q.timeout = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM socialproof sp
+    JOIN sesja s ON sp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND sp.timeout = 1
+  ) +
+  (
+    SELECT COUNT(*) FROM timepressing tp
+    JOIN sesja s ON tp.id_sesji = s.id_sesji
+    JOIN uzytkownicy u ON s.id_uzytkownika = u.id_uzytkownika
+    WHERE u.plec = 'kobieta' AND tp.timeout = 1
+  ) as liczba_obserwacji_dla_kobiet;</t>
+  </si>
+  <si>
+    <t>wersja tricked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wersja normal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wersja positive </t>
+  </si>
+  <si>
+    <t>wersja negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba obserwacji z zadania timepressing gdzie wersja tricked i wynik 0 </t>
+  </si>
+  <si>
+    <t>liczba obserwacji z zadania timepressing gdzie wersja tricked i wynik 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba obserwacji z zadania timepressing gdzie wersja tricked </t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba obserwacji z zadania timepressing gdzie wersja normal i wynik 1 </t>
+  </si>
+  <si>
+    <t>liczba obserwacji z zadania timepressing gdzie wersja normal</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM timepressing
+WHERE wersja = 'tricked' AND wynik = 0;</t>
+  </si>
+  <si>
+    <t>liczba obserwacji z zadania timepressing gdzie wersja normal i wynik 0</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM timepressing
+WHERE wersja = 'tricked' AND wynik =1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM timepressing
+WHERE wersja = 'tricked' ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM timepressing
+WHERE wersja = 'normal' AND wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM timepressing
+WHERE wersja = 'normal' AND wynik =1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM timepressing
+WHERE wersja = 'normal' ;</t>
+  </si>
+  <si>
+    <t>liczba obserwacji z zadania framing  gdzie wersja possitive i wynik 1</t>
+  </si>
+  <si>
+    <t>liczba obserwacji z zadania framing  gdzie wersja possitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba obserwacji z zadania framing  gdzie wersja positive i wynik 0 </t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM framing
+WHERE wersja = 'positive' AND wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM framing
+WHERE wersja = 'positive' AND wynik =1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT COUNT(*) AS liczba_obserwacji
+FROM framing
+WHERE wersja = 'positive' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba obserwacji z zadania negative  gdzie wersja negative i wynik 0 </t>
+  </si>
+  <si>
+    <t>liczba obserwacji z zadania framing  gdzie wersja negative i wynik 1</t>
+  </si>
+  <si>
+    <t>liczba obserwacji z zadania framing  gdzie wersja negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT COUNT(*) AS liczba_obserwacji
+FROM framing
+WHERE wersja = 'negative' </t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM framing
+WHERE wersja = 'negative' AND wynik =1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM socialproof
+WHERE wersja = 'tricked' AND wynik = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba obserwacji z zadania socialproof gdzie wersja tricked i wynik 0 </t>
+  </si>
+  <si>
+    <t>liczba obserwacji z zadania socialproof gdzie wersja tricked i wynik 1</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM socialproof
+WHERE wersja = 'tricked' AND wynik =1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM socialproof
+WHERE wersja = 'tricked' ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba obserwacji z zadania socialproof  gdzie wersja tricked </t>
+  </si>
+  <si>
+    <t>liczba obserwacji z zadania socialproof gdzie wersja normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba obserwacji z zadania socialproof gdzie wersja normal i wynik 1 </t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM socialproof
+WHERE wersja = 'normal' AND wynik =1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM socialproof
+WHERE wersja = 'normal' ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM socialproof
+WHERE wersja = 'normal' AND wynik = 0;</t>
+  </si>
+  <si>
+    <t>liczba obserwacji z zadania socialproof  gdzie wersja normal i wynik 0</t>
+  </si>
+  <si>
+    <t>Liczba obserwacji  z tabeli kolory gdzie grupa wiekowa young i wynik to 0</t>
+  </si>
+  <si>
+    <t>Liczba obserwacji  z tabeli kolory gdzie grupa wiekowa young i wynik to 1</t>
+  </si>
+  <si>
+    <t>Liczba obserwacji  z tabeli kolory gdzie grupa wiekowa young</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM kolory k
+JOIN sesja s ON k.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika
+WHERE k.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM kolory k
+JOIN sesja s ON k.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika
+WHERE k.wynik =1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM kolory k
+JOIN sesja s ON k.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM kolory k
+JOIN sesja s ON k.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um  ON s.id_uzytkownika = um.id_uzytkownika
+WHERE k.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM kolory k
+JOIN sesja s ON k.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um  ON s.id_uzytkownika = um.id_uzytkownika
+WHERE k.wynik = 1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM kolory k
+JOIN sesja s ON k.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um  ON s.id_uzytkownika = um.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM kolory k
+JOIN sesja s ON k.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo  ON s.id_uzytkownika = uo.id_uzytkownika
+WHERE k.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM kolory k
+JOIN sesja s ON k.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo  ON s.id_uzytkownika = uo.id_uzytkownika
+WHERE k.wynik = 1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM kolory k
+JOIN sesja s ON k.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo  ON s.id_uzytkownika = uo.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM false_hierarchy fh
+JOIN sesja s ON fh.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika
+WHERE fh.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM false_hierarchy fh
+JOIN sesja s ON fh.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika
+WHERE fh.wynik = 1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM false_hierarchy fh
+JOIN sesja s ON fh.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM false_hierarchy fh
+JOIN sesja s ON fh.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um ON s.id_uzytkownika = um.id_uzytkownika
+WHERE fh.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM false_hierarchy fh
+JOIN sesja s ON fh.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um ON s.id_uzytkownika = um.id_uzytkownika
+WHERE fh.wynik = 1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM false_hierarchy fh
+JOIN sesja s ON fh.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um ON s.id_uzytkownika = um.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM false_hierarchy fh
+JOIN sesja s ON fh.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo ON s.id_uzytkownika = uo.id_uzytkownika
+WHERE fh.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM false_hierarchy fh
+JOIN sesja s ON fh.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo ON s.id_uzytkownika = uo.id_uzytkownika
+WHERE fh.wynik = 1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM false_hierarchy fh
+JOIN sesja s ON fh.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo ON s.id_uzytkownika = uo.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM misdirections m
+JOIN sesja s ON m.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika
+WHERE m.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM misdirections m
+JOIN sesja s ON m.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika
+WHERE m.wynik = 1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM misdirections m
+JOIN sesja s ON m.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM misdirections m
+JOIN sesja s ON m.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um ON s.id_uzytkownika = um.id_uzytkownika
+WHERE m.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM misdirections m
+JOIN sesja s ON m.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um ON s.id_uzytkownika = um.id_uzytkownika
+WHERE m.wynik = 1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM misdirections m
+JOIN sesja s ON m.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um ON s.id_uzytkownika = um.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM misdirections m
+JOIN sesja s ON m.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo ON s.id_uzytkownika = uo.id_uzytkownika
+WHERE m.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM misdirections m
+JOIN sesja s ON m.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo ON s.id_uzytkownika = uo.id_uzytkownika
+WHERE m.wynik = 1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM misdirections m
+JOIN sesja s ON m.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo ON s.id_uzytkownika = uo.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM questions q
+JOIN sesja s ON q.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika
+WHERE q.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM questions q
+JOIN sesja s ON q.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika
+WHERE q.wynik = 1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM questions q
+JOIN sesja s ON q.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM questions q
+JOIN sesja s ON q.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um ON s.id_uzytkownika = um.id_uzytkownika
+WHERE q.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM questions q
+JOIN sesja s ON q.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um ON s.id_uzytkownika = um.id_uzytkownika
+WHERE q.wynik = 1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM questions q
+JOIN sesja s ON q.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um ON s.id_uzytkownika = um.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM questions q
+JOIN sesja s ON q.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo ON s.id_uzytkownika = uo.id_uzytkownika
+WHERE q.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM questions q
+JOIN sesja s ON q.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo ON s.id_uzytkownika = uo.id_uzytkownika
+WHERE q.wynik = 1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM questions q
+JOIN sesja s ON q.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo ON s.id_uzytkownika = uo.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM preselections p
+JOIN sesja s ON p.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika
+WHERE p.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM preselections p
+JOIN sesja s ON p.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika
+WHERE p.wynik = 1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM preselections p
+JOIN sesja s ON p.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM preselections p
+JOIN sesja s ON p.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um ON s.id_uzytkownika = um.id_uzytkownika
+WHERE p.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM preselections p
+JOIN sesja s ON p.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um ON s.id_uzytkownika = um.id_uzytkownika
+WHERE p.wynik = 1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM preselections p
+JOIN sesja s ON p.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um ON s.id_uzytkownika = um.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM preselections p
+JOIN sesja s ON p.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo ON s.id_uzytkownika = uo.id_uzytkownika
+WHERE p.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM preselections p
+JOIN sesja s ON p.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo ON s.id_uzytkownika = uo.id_uzytkownika
+WHERE p.wynik = 1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM preselections p
+JOIN sesja s ON p.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo ON s.id_uzytkownika = uo.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM timepressing tp
+JOIN sesja s ON tp.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika
+WHERE tp.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM timepressing tp
+JOIN sesja s ON tp.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika
+WHERE tp.wynik = 1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM timepressing tp
+JOIN sesja s ON tp.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM timepressing tp
+JOIN sesja s ON tp.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um ON s.id_uzytkownika = um.id_uzytkownika
+WHERE tp.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM timepressing tp
+JOIN sesja s ON tp.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um ON s.id_uzytkownika = um.id_uzytkownika
+WHERE tp.wynik = 1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM timepressing tp
+JOIN sesja s ON tp.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um ON s.id_uzytkownika = um.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM timepressing tp
+JOIN sesja s ON tp.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo ON s.id_uzytkownika = uo.id_uzytkownika
+WHERE tp.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM timepressing tp
+JOIN sesja s ON tp.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo ON s.id_uzytkownika = uo.id_uzytkownika
+WHERE tp.wynik = 1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM timepressing tp
+JOIN sesja s ON tp.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo ON s.id_uzytkownika = uo.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM framing f
+JOIN sesja s ON f.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika
+WHERE f.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM framing f
+JOIN sesja s ON f.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika
+WHERE f.wynik = 1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM framing f
+JOIN sesja s ON f.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM framing f
+JOIN sesja s ON f.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um ON s.id_uzytkownika = um.id_uzytkownika
+WHERE f.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM framing f
+JOIN sesja s ON f.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um ON s.id_uzytkownika = um.id_uzytkownika
+WHERE f.wynik = 1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM framing f
+JOIN sesja s ON f.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um ON s.id_uzytkownika = um.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM framing f
+JOIN sesja s ON f.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo ON s.id_uzytkownika = uo.id_uzytkownika
+WHERE f.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM framing f
+JOIN sesja s ON f.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo ON s.id_uzytkownika = uo.id_uzytkownika
+WHERE f.wynik = 1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM framing f
+JOIN sesja s ON f.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo ON s.id_uzytkownika = uo.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM socialproof sp
+JOIN sesja s ON sp.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika
+WHERE sp.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM socialproof sp
+JOIN sesja s ON sp.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika
+WHERE sp.wynik = 1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM socialproof sp
+JOIN sesja s ON sp.id_sesji = s.id_sesji
+JOIN uzytkownicy_young uy ON s.id_uzytkownika = uy.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM socialproof sp
+JOIN sesja s ON sp.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um ON s.id_uzytkownika = um.id_uzytkownika
+WHERE sp.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM socialproof sp
+JOIN sesja s ON sp.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um ON s.id_uzytkownika = um.id_uzytkownika
+WHERE sp.wynik = 1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM socialproof sp
+JOIN sesja s ON sp.id_sesji = s.id_sesji
+JOIN uzytkownicy_mid um ON s.id_uzytkownika = um.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM socialproof sp
+JOIN sesja s ON sp.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo ON s.id_uzytkownika = uo.id_uzytkownika
+WHERE sp.wynik = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM socialproof sp
+JOIN sesja s ON sp.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo ON s.id_uzytkownika = uo.id_uzytkownika
+WHERE sp.wynik = 1;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS liczba_obserwacji
+FROM socialproof sp
+JOIN sesja s ON sp.id_sesji = s.id_sesji
+JOIN uzytkownicy_old uo ON s.id_uzytkownika = uo.id_uzytkownika;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ogólne zmanipulowanie w zadaniach (ogolne_zmanipulowanie) </t>
+  </si>
+  <si>
+    <t>Analiza ogólnego zmanipulowania dla poszczególnych zadań (analiza_zadan)</t>
+  </si>
+  <si>
+    <t>Analiza pod kątem presji czasu. Jak krótki czas wpłynał na wyniki? (analiza_presja_czasu)</t>
+  </si>
+  <si>
+    <t>Analiza pod katem presji czasu w konkretnych zadaniach (analiza_presja_czasu_zadaniami)</t>
+  </si>
+  <si>
+    <t>Skutecznosc w zadaniu timepressing (skutecznosc_timepressing)</t>
+  </si>
+  <si>
+    <t>Skutecznosc w zadaniu framing (skutecznosc_framing)</t>
+  </si>
+  <si>
+    <t>Skutecznosc w zadaniu socialproof  (skutecznosc_socialproof)</t>
+  </si>
+  <si>
+    <t>Płeć / Wynik (analiza_wg_pleci)</t>
+  </si>
+  <si>
+    <t>Poczekac na prawdziwe dane!</t>
+  </si>
+  <si>
+    <t>Wiek / Wynik  (analiza_wg_wieku)</t>
+  </si>
+  <si>
+    <t>Analiza pod katem wieku w w konkretnych zadaniach (analiza_wiek_zadania)</t>
+  </si>
+  <si>
+    <t>Zawód, a zmanipulowanie użytkowników (analiza_zawod_zadania)</t>
+  </si>
+  <si>
+    <t>analiza_ocen_wiek</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5332,6 +6962,23 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5341,7 +6988,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -5466,11 +7113,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5513,9 +7292,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5532,6 +7308,55 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -5865,116 +7690,1153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084DE96A-C944-4B83-A342-5960260262FF}">
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF57280-CA89-4B30-B719-36B8FC4834E3}">
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
-    <col min="2" max="2" width="51.90625" customWidth="1"/>
-    <col min="3" max="3" width="49.1796875" customWidth="1"/>
-    <col min="4" max="4" width="37.26953125" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="1" max="1" width="55.1796875" customWidth="1"/>
+    <col min="2" max="2" width="71" customWidth="1"/>
+    <col min="3" max="3" width="69" customWidth="1"/>
+    <col min="4" max="4" width="64.90625" customWidth="1"/>
+    <col min="5" max="5" width="63.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="29">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="C9" s="29">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="D9" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
+      <c r="B10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="31"/>
+      <c r="B11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="31"/>
+      <c r="B17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" t="s">
+        <v>248</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="31"/>
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="31"/>
+      <c r="B20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" t="s">
+        <v>253</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="E22" s="32"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="31"/>
+      <c r="B23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" t="s">
+        <v>256</v>
+      </c>
+      <c r="D23" t="s">
+        <v>257</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="31"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="31"/>
+      <c r="B26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" t="s">
+        <v>260</v>
+      </c>
+      <c r="D26" t="s">
+        <v>261</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="31"/>
+      <c r="E27" s="32"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="E28" s="32"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="31"/>
+      <c r="B29" t="s">
+        <v>262</v>
+      </c>
+      <c r="C29" t="s">
+        <v>263</v>
+      </c>
+      <c r="D29" t="s">
+        <v>264</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="31"/>
+      <c r="E30" s="32"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="E31" s="32"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="34"/>
+      <c r="B32" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="40"/>
+      <c r="B37" s="29">
         <v>0</v>
       </c>
-      <c r="K3" s="2">
+      <c r="C37" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I4" s="2" t="s">
+      <c r="D37" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="B38" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" t="s">
+        <v>379</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="232" x14ac:dyDescent="0.35">
+      <c r="A39" s="53"/>
+      <c r="B39" s="54" t="s">
+        <v>375</v>
+      </c>
+      <c r="C39" s="54" t="s">
+        <v>380</v>
+      </c>
+      <c r="D39" s="55" t="s">
+        <v>381</v>
+      </c>
+      <c r="E39" s="55" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B40" s="29">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>500</v>
-      </c>
-      <c r="K4">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I5" s="2" t="s">
+      <c r="C40" s="29">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="D40" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="31"/>
+      <c r="B41" t="s">
+        <v>290</v>
+      </c>
+      <c r="C41" t="s">
+        <v>377</v>
+      </c>
+      <c r="D41" t="s">
+        <v>291</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="34"/>
+      <c r="B42" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="E42" s="36" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="52"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B50" s="29">
+        <v>0</v>
+      </c>
+      <c r="C50" s="29">
+        <v>1</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="B51" t="s">
+        <v>292</v>
+      </c>
+      <c r="C51" t="s">
+        <v>293</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="31"/>
+      <c r="B52" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="B53" t="s">
+        <v>295</v>
+      </c>
+      <c r="C53" t="s">
+        <v>296</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="34"/>
+      <c r="B54" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B55" s="29">
+        <v>0</v>
+      </c>
+      <c r="C55" s="29">
+        <v>1</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="B56" t="s">
+        <v>304</v>
+      </c>
+      <c r="C56" t="s">
+        <v>305</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="31"/>
+      <c r="B57" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="B58" t="s">
+        <v>295</v>
+      </c>
+      <c r="C58" t="s">
+        <v>296</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="34"/>
+      <c r="B59" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="D59" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="B60" s="29">
+        <v>0</v>
+      </c>
+      <c r="C60" s="29">
+        <v>1</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="B61" t="s">
+        <v>313</v>
+      </c>
+      <c r="C61" t="s">
+        <v>314</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="31"/>
+      <c r="B62" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="B63" t="s">
+        <v>295</v>
+      </c>
+      <c r="C63" t="s">
+        <v>296</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="34"/>
+      <c r="B64" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="B65" s="29">
+        <v>0</v>
+      </c>
+      <c r="C65" s="29">
+        <v>1</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="B66" t="s">
+        <v>322</v>
+      </c>
+      <c r="C66" t="s">
+        <v>323</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="31"/>
+      <c r="B67" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="B68" t="s">
+        <v>295</v>
+      </c>
+      <c r="C68" t="s">
+        <v>296</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="34"/>
+      <c r="B69" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="D69" s="36" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B70" s="29">
+        <v>0</v>
+      </c>
+      <c r="C70" s="29">
+        <v>1</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="B71" t="s">
+        <v>331</v>
+      </c>
+      <c r="C71" t="s">
+        <v>332</v>
+      </c>
+      <c r="D71" s="32" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="31"/>
+      <c r="B72" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="B73" t="s">
+        <v>295</v>
+      </c>
+      <c r="C73" t="s">
+        <v>296</v>
+      </c>
+      <c r="D73" s="32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="34"/>
+      <c r="B74" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="D74" s="36" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="B75" s="42">
+        <v>0</v>
+      </c>
+      <c r="C75" s="42">
+        <v>1</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="B76" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="C76" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="D76" s="46" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="44" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="45"/>
+      <c r="B77" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="C77" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="D77" s="48" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="B78" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="C78" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="D78" s="46" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="44" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="49"/>
+      <c r="B79" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="C79" s="50" t="s">
+        <v>347</v>
+      </c>
+      <c r="D79" s="51" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B80" s="42">
+        <v>0</v>
+      </c>
+      <c r="C80" s="42">
+        <v>1</v>
+      </c>
+      <c r="D80" s="43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="B81" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="C81" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="D81" s="46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="44" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="45"/>
+      <c r="B82" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="C82" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="D82" s="48" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="B83" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="C83" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="D83" s="46" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="44" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="49"/>
+      <c r="B84" s="50" t="s">
+        <v>355</v>
+      </c>
+      <c r="C84" s="50" t="s">
+        <v>356</v>
+      </c>
+      <c r="D84" s="51" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="44" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="B85" s="42">
+        <v>0</v>
+      </c>
+      <c r="C85" s="42">
+        <v>1</v>
+      </c>
+      <c r="D85" s="43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="B86" s="44" t="s">
+        <v>358</v>
+      </c>
+      <c r="C86" s="44" t="s">
+        <v>359</v>
+      </c>
+      <c r="D86" s="46" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="44" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="45"/>
+      <c r="B87" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="C87" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="D87" s="48" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="B88" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="C88" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="D88" s="46" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="44" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="49"/>
+      <c r="B89" s="50" t="s">
+        <v>364</v>
+      </c>
+      <c r="C89" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="D89" s="51" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="B96" s="29">
+        <v>0</v>
+      </c>
+      <c r="C96" s="29">
+        <v>1</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="31"/>
+      <c r="B97" t="s">
+        <v>396</v>
+      </c>
+      <c r="C97" t="s">
+        <v>397</v>
+      </c>
+      <c r="D97" s="32" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="D98" s="33" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="31"/>
+      <c r="D99" s="32"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="B100" t="s">
+        <v>402</v>
+      </c>
+      <c r="C100" t="s">
+        <v>399</v>
+      </c>
+      <c r="D100" s="32" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="31"/>
+      <c r="B101" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="D101" s="33" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="34"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="39"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="B107" s="29">
+        <v>0</v>
+      </c>
+      <c r="C107" s="29">
+        <v>1</v>
+      </c>
+      <c r="D107" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="31"/>
+      <c r="D108" s="32"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="B109" t="s">
+        <v>410</v>
+      </c>
+      <c r="C109" t="s">
+        <v>408</v>
+      </c>
+      <c r="D109" s="32" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A110" s="31"/>
+      <c r="B110" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="D110" s="33" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="B111" t="s">
+        <v>414</v>
+      </c>
+      <c r="C111" t="s">
+        <v>415</v>
+      </c>
+      <c r="D111" s="32" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="34"/>
+      <c r="B112" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="C112" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="D112" s="36" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="B117" s="29">
+        <v>0</v>
+      </c>
+      <c r="C117" s="29">
+        <v>1</v>
+      </c>
+      <c r="D117" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="31"/>
+      <c r="B118" t="s">
+        <v>420</v>
+      </c>
+      <c r="C118" t="s">
+        <v>421</v>
+      </c>
+      <c r="D118" s="32" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="D119" s="33" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="31"/>
+      <c r="D120" s="32"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="B121" t="s">
         <v>430</v>
       </c>
-      <c r="K5">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="2:4" ht="20.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:4" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>194</v>
-      </c>
+      <c r="C121" t="s">
+        <v>426</v>
+      </c>
+      <c r="D121" s="32" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A122" s="31"/>
+      <c r="B122" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="D122" s="33" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="34"/>
+      <c r="B123" s="38"/>
+      <c r="C123" s="38"/>
+      <c r="D123" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5982,24 +8844,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEC5D00-F1B4-4EC0-AF33-F3FD854D9888}">
-  <dimension ref="A1:E34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084DE96A-C944-4B83-A342-5960260262FF}">
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="66.90625" customWidth="1"/>
-    <col min="3" max="3" width="52.1796875" customWidth="1"/>
-    <col min="4" max="4" width="80.81640625" customWidth="1"/>
+    <col min="1" max="1" width="44.08984375" customWidth="1"/>
+    <col min="2" max="2" width="51.90625" customWidth="1"/>
+    <col min="3" max="3" width="49.1796875" customWidth="1"/>
+    <col min="4" max="4" width="37.26953125" customWidth="1"/>
+    <col min="5" max="5" width="62.7265625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>513</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -6010,216 +8874,107 @@
       <c r="D1" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>85</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+      <c r="E2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="209" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="199.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E10" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E11" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E12" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E3" t="s">
+        <v>389</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="C15" s="2">
+      <c r="K3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="10">
-        <v>300</v>
-      </c>
-      <c r="C16" s="10">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="10">
-        <v>400</v>
-      </c>
-      <c r="C17" s="10">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="10">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>500</v>
       </c>
-      <c r="C18" s="10">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>190</v>
+      <c r="K4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>430</v>
+      </c>
+      <c r="K5">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:5" ht="20.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:5" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -6231,8 +8986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9622A87E-80E9-4181-B002-9AB31E5FC468}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6265,16 +9020,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="25">
         <v>0</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="26">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>193</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -6294,13 +9049,13 @@
       <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>201</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -6320,13 +9075,13 @@
       <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>202</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -6346,13 +9101,13 @@
       <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>203</v>
       </c>
       <c r="E5" s="12" t="s">
@@ -6369,16 +9124,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="139.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>204</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -6409,6 +9164,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="56" t="s">
+        <v>514</v>
+      </c>
       <c r="E8" s="12" t="s">
         <v>27</v>
       </c>
@@ -6725,11 +9483,696 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEC5D00-F1B4-4EC0-AF33-F3FD854D9888}">
+  <dimension ref="A1:L80"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="83" customWidth="1"/>
+    <col min="2" max="2" width="66.90625" customWidth="1"/>
+    <col min="3" max="3" width="66.54296875" customWidth="1"/>
+    <col min="4" max="4" width="81.08984375" customWidth="1"/>
+    <col min="5" max="5" width="45.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E12" s="11"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="10">
+        <v>300</v>
+      </c>
+      <c r="C16" s="10">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10">
+        <v>400</v>
+      </c>
+      <c r="C17" s="10">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="10">
+        <v>500</v>
+      </c>
+      <c r="C18" s="10">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B41" t="s">
+        <v>431</v>
+      </c>
+      <c r="C41" t="s">
+        <v>432</v>
+      </c>
+      <c r="D41" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="34"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="34"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="34"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="34"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="49"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="49"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="49"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2044B6-58F4-43C3-AF97-50B7E828438F}">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6742,7 +10185,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>49</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -7050,12 +10493,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB464E44-03C8-4D86-859F-D3259DE751FB}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7180,6 +10623,11 @@
         <v>130</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
       <c r="C15" s="11" t="s">
@@ -7210,11 +10658,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20709ED5-BF55-4B59-A490-6430BC550FE1}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
